--- a/files/Situacion_sanitaria.xlsx
+++ b/files/Situacion_sanitaria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F07F09-4696-114C-B79C-9F71EBC0E06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FC8B6-56E4-5E4B-9531-90E90ADE9C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="520" windowWidth="25660" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
+    <workbookView xWindow="3140" yWindow="520" windowWidth="25660" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
   <si>
     <t>CCAA</t>
   </si>
@@ -105,123 +105,15 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Seccion</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Hogares</t>
-  </si>
-  <si>
-    <t>Empresas</t>
-  </si>
-  <si>
-    <t>CNAE</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Empleo Relación</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Agricultura y medio ambiente</t>
-  </si>
-  <si>
-    <t>Ciencia y tecnología</t>
-  </si>
-  <si>
     <t>Demografía y población</t>
   </si>
   <si>
-    <t>Economía</t>
-  </si>
-  <si>
-    <t>Industria, energía y construcción</t>
-  </si>
-  <si>
-    <t>Mercado laboral</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Nivel y condiciones de vida</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>EPF</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa discreta</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa continua</t>
-  </si>
-  <si>
-    <t>Variable cualitativa</t>
-  </si>
-  <si>
-    <t>ECV</t>
-  </si>
-  <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
-  </si>
-  <si>
     <t>Enlace a datos</t>
   </si>
   <si>
     <t>Referencia temporal</t>
   </si>
   <si>
-    <t>Análisis Discriminante</t>
-  </si>
-  <si>
     <t>Comunidad Autónoma</t>
   </si>
   <si>
@@ -349,9 +241,6 @@
   </si>
   <si>
     <t>54088 Encuesta europea de salud en España</t>
-  </si>
-  <si>
-    <t>Situacion_sanitaria</t>
   </si>
   <si>
     <r>
@@ -481,12 +370,177 @@
       <t>4.Interpretar componentes y resultados.</t>
     </r>
   </si>
+  <si>
+    <t>Tipo de Análisis</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, selvicultura y caza</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Medio ambiente y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Extracción de productos energéticos y energía en general</t>
+  </si>
+  <si>
+    <t>Minería e industria</t>
+  </si>
+  <si>
+    <t>Construcción y vivienda</t>
+  </si>
+  <si>
+    <t>Servicios (estadísticas generales)</t>
+  </si>
+  <si>
+    <t>Comercio interior y exterior</t>
+  </si>
+  <si>
+    <t>Transporte y actividades conexas</t>
+  </si>
+  <si>
+    <t>Estadísticas de empresas y unidades de producción no referidas a sectores particulares</t>
+  </si>
+  <si>
+    <t>Financieras y seguros</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Mercado laboral y salarios</t>
+  </si>
+  <si>
+    <t>Cuentas económicas</t>
+  </si>
+  <si>
+    <t>Administraciones públicas y asociaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información y las comunicaciones (TIC)</t>
+  </si>
+  <si>
+    <t>Hostelería y turismo</t>
+  </si>
+  <si>
+    <t>Cultura, deporte y ocio</t>
+  </si>
+  <si>
+    <t>Educación y formación</t>
+  </si>
+  <si>
+    <t>Investigación científica y desarrollo tecnológico</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Protección social y servicios sociales</t>
+  </si>
+  <si>
+    <t>Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>Nivel, calidad y condiciones de vida</t>
+  </si>
+  <si>
+    <t>Estadísticas no desglosables por sector o tema</t>
+  </si>
+  <si>
+    <t>Normalización y metodología general</t>
+  </si>
+  <si>
+    <t>Estadística Experimental</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Contiene variables</t>
+  </si>
+  <si>
+    <t>Técnica de Estudio</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: LDA</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: QDA</t>
+  </si>
+  <si>
+    <t>Operaciones Estadísticas</t>
+  </si>
+  <si>
+    <t>54009 - Encuesta Nacional de Salud (ENSE)</t>
+  </si>
+  <si>
+    <t>30264 Indicadores Demográficos Básicos</t>
+  </si>
+  <si>
+    <t>Desagregación Territorial</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Cuantitativa Discreta</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Cualitativa Binaria</t>
+  </si>
+  <si>
+    <t>Cualitativa Politómica</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Simple</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Múltiple</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Componentes principales</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Análisis Factorial</t>
+  </si>
+  <si>
+    <t>Cluster Jerárquico</t>
+  </si>
+  <si>
+    <t>Cluster K-Means</t>
+  </si>
+  <si>
+    <t>Series Temporales ARIMA</t>
+  </si>
+  <si>
+    <t>Series Temporales Holt Winters</t>
+  </si>
+  <si>
+    <t>Series Temporales VEC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,8 +606,31 @@
       <color theme="0"/>
       <name val="Calibri (Cuerpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,24 +640,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +667,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DDE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -802,32 +915,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -876,6 +968,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -902,6 +1034,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1223,176 +1379,176 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1413,486 +1569,486 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="29"/>
+    <col min="1" max="1" width="27.33203125" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="27" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>68</v>
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="16">
         <v>8.2100000000000009</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="16">
         <v>8.35</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="16">
         <v>101.13</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="16">
         <v>492.5</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="16">
         <v>564.78</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="16">
         <v>0.63</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="16">
         <v>544.875</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="16">
         <v>7.28</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="16">
         <v>10.28</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="16">
         <v>143.52000000000001</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="16">
         <v>689.29</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="16">
         <v>681.63</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="16">
         <v>1.23</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="16">
         <v>748.375</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="16">
         <v>5.05</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="16">
         <v>12.64</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="16">
         <v>218.65</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="16">
         <v>653.87</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="16">
         <v>734.98</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="16">
         <v>0.18</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="16">
         <v>833.75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16">
         <v>8.08</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="16">
         <v>6.67</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="16">
         <v>99.66</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="16">
         <v>483.97</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="16">
         <v>544.53</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="16">
         <v>0.93</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="16">
         <v>702.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="16">
         <v>6.37</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="16">
         <v>7.1</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="16">
         <v>114.07</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="16">
         <v>505.83</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="16">
         <v>653.39</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="16">
         <v>1.77</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="16">
         <v>537.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="16">
         <v>6.1</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="16">
         <v>10.33</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="16">
         <v>153.87</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="16">
         <v>635.54999999999995</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="16">
         <v>841.39</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="16">
         <v>0.17</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="16">
         <v>652.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="16">
         <v>5.96</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="16">
         <v>11.95</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="16">
         <v>197.06</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="16">
         <v>629.88</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="16">
         <v>734.88</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="16">
         <v>1.22</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="16">
         <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="16">
         <v>7.51</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="16">
         <v>9.5500000000000007</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="16">
         <v>117.49</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="16">
         <v>446.89</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="16">
         <v>591.94000000000005</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="16">
         <v>0.23</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="16">
         <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="29">
+      <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="16">
         <v>8.09</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="16">
         <v>8.48</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="16">
         <v>115.28</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="16">
         <v>575.17999999999995</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="16">
         <v>735.51</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="16">
         <v>0.89</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="16">
         <v>785.125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="29">
+      <c r="A11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16">
         <v>7.47</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="16">
         <v>122.57</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="16">
         <v>526.91999999999996</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="16">
         <v>584.09</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="16">
         <v>1.92</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="16">
         <v>686.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="16">
         <v>7.2</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="16">
         <v>10.6</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="16">
         <v>140.84</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="16">
         <v>541.34</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="16">
         <v>775.15</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="16">
         <v>0.73</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="16">
         <v>709.375</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="16">
         <v>5.82</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="16">
         <v>11.59</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="16">
         <v>198.12</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="16">
         <v>529.17999999999995</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="16">
         <v>542.46</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="16">
         <v>1.53</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="16">
         <v>782.625</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="A14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="16">
         <v>8.34</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="16">
         <v>7.05</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="16">
         <v>108.19</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="16">
         <v>681.47</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="16">
         <v>791.04</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="16">
         <v>0.74</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="16">
         <v>717.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="A15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="16">
         <v>9.5399999999999991</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="16">
         <v>7.74</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="16">
         <v>85.98</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="16">
         <v>511.41</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="16">
         <v>458.66</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="16">
         <v>1.69</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="16">
         <v>654.125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="29">
+      <c r="A16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="16">
         <v>8.23</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="16">
         <v>8.5299999999999994</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="16">
         <v>119.37</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="16">
         <v>649.27</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="16">
         <v>1047.93</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="16">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="16">
         <v>712.375</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="29">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16">
         <v>7.08</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="16">
         <v>9.8800000000000008</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="16">
         <v>150.49</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="16">
         <v>652.62</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="16">
         <v>767.79</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="16">
         <v>1.48</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="16">
         <v>776.25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="29">
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="16">
         <v>7.66</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="16">
         <v>10.01</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="16">
         <v>135.87</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="16">
         <v>554.04</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="16">
         <v>646.23</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="16">
         <v>1.38</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="16">
         <v>763.625</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1922,204 +2078,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="F8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>96</v>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2138,388 +2294,619 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140220C2-D072-4C73-A23A-56941A369515}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="129" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="14"/>
-    <col min="3" max="16384" width="17.5" style="1"/>
+    <col min="1" max="2" width="16.6640625" style="1"/>
+    <col min="3" max="3" width="9.1640625" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="16.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="44"/>
+      <c r="B5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="47"/>
+      <c r="B40" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="47"/>
+      <c r="B42" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="48"/>
+      <c r="B44" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="48"/>
+      <c r="B45" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="48"/>
+      <c r="B46" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="43"/>
+      <c r="B52" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43"/>
+      <c r="B54" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43"/>
+      <c r="B56" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="43"/>
+      <c r="B57" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="19">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5">
+    </row>
+    <row r="60" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="61" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="14">
-        <v>0</v>
-      </c>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/files/Situacion_sanitaria.xlsx
+++ b/files/Situacion_sanitaria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FC8B6-56E4-5E4B-9531-90E90ADE9C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0B6D4D-F1CB-F841-B65E-DCC96D717BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="520" windowWidth="25660" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
   <si>
     <t>CCAA</t>
   </si>
@@ -1008,6 +1008,12 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1052,12 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1379,176 +1379,176 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
     </row>
     <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2274,7 +2274,9 @@
       <c r="E9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
   </sheetData>
@@ -2287,6 +2289,7 @@
     <hyperlink ref="F7" r:id="rId5" xr:uid="{2A11BFF7-3369-7748-B5B8-EFFD75580452}"/>
     <hyperlink ref="F8" r:id="rId6" xr:uid="{ED804530-748C-7F49-B2B9-07A33A33D38E}"/>
     <hyperlink ref="F5" r:id="rId7" display="https://www.ine.es/dyngs/IOE/es/operacion.htm?numinv=30264" xr:uid="{4B36DCCF-2C32-BD45-9888-476E5B5DA30E}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{D6AF64EF-3C33-8541-B54B-04F99DDFCD1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2319,7 +2322,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -2330,7 +2333,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="26" t="s">
         <v>16</v>
       </c>
@@ -2339,7 +2342,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
@@ -2348,7 +2351,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
@@ -2357,7 +2360,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2368,7 +2371,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2380,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="27" t="s">
         <v>20</v>
       </c>
@@ -2386,7 +2389,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
@@ -2395,7 +2398,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="27" t="s">
         <v>111</v>
       </c>
@@ -2404,7 +2407,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -2415,7 +2418,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="28" t="s">
         <v>73</v>
       </c>
@@ -2424,7 +2427,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="28" t="s">
         <v>74</v>
       </c>
@@ -2433,7 +2436,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="28" t="s">
         <v>75</v>
       </c>
@@ -2442,7 +2445,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="28" t="s">
         <v>76</v>
       </c>
@@ -2451,7 +2454,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="28" t="s">
         <v>77</v>
       </c>
@@ -2460,7 +2463,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="28" t="s">
         <v>78</v>
       </c>
@@ -2469,7 +2472,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="28" t="s">
         <v>79</v>
       </c>
@@ -2478,7 +2481,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="28" t="s">
         <v>80</v>
       </c>
@@ -2487,7 +2490,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="28" t="s">
         <v>81</v>
       </c>
@@ -2496,7 +2499,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="28" t="s">
         <v>82</v>
       </c>
@@ -2505,7 +2508,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
@@ -2514,7 +2517,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="28" t="s">
         <v>84</v>
       </c>
@@ -2523,7 +2526,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
       </c>
@@ -2532,7 +2535,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
       </c>
@@ -2541,7 +2544,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
@@ -2550,7 +2553,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="28" t="s">
         <v>88</v>
       </c>
@@ -2559,7 +2562,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="28" t="s">
         <v>89</v>
       </c>
@@ -2568,7 +2571,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="28" t="s">
         <v>90</v>
       </c>
@@ -2577,7 +2580,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="28" t="s">
         <v>91</v>
       </c>
@@ -2586,7 +2589,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="28" t="s">
         <v>92</v>
       </c>
@@ -2595,7 +2598,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="28" t="s">
         <v>93</v>
       </c>
@@ -2604,7 +2607,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="28" t="s">
         <v>94</v>
       </c>
@@ -2613,7 +2616,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28" t="s">
         <v>22</v>
       </c>
@@ -2622,7 +2625,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="28" t="s">
         <v>95</v>
       </c>
@@ -2631,7 +2634,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="28" t="s">
         <v>96</v>
       </c>
@@ -2640,7 +2643,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="28" t="s">
         <v>97</v>
       </c>
@@ -2649,7 +2652,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="28" t="s">
         <v>98</v>
       </c>
@@ -2658,7 +2661,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="49" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="29" t="s">
@@ -2669,7 +2672,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="29" t="s">
         <v>113</v>
       </c>
@@ -2678,7 +2681,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="29" t="s">
         <v>114</v>
       </c>
@@ -2687,7 +2690,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="29" t="s">
         <v>115</v>
       </c>
@@ -2696,7 +2699,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="50" t="s">
         <v>100</v>
       </c>
       <c r="B43" s="30" t="s">
@@ -2707,7 +2710,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="30" t="s">
         <v>113</v>
       </c>
@@ -2716,7 +2719,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="30" t="s">
         <v>114</v>
       </c>
@@ -2725,7 +2728,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="30" t="s">
         <v>115</v>
       </c>
@@ -2734,7 +2737,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B47" s="31" t="s">
@@ -2745,7 +2748,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="31" t="s">
         <v>117</v>
       </c>
@@ -2754,7 +2757,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="32" t="s">
         <v>102</v>
       </c>
@@ -2763,7 +2766,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="43"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="33" t="s">
         <v>103</v>
       </c>
@@ -2772,7 +2775,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="43"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="33" t="s">
         <v>104</v>
       </c>
@@ -2781,7 +2784,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="31" t="s">
         <v>118</v>
       </c>
@@ -2790,7 +2793,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="31" t="s">
         <v>119</v>
       </c>
@@ -2799,7 +2802,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="43"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="32" t="s">
         <v>120</v>
       </c>
@@ -2808,7 +2811,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="43"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="32" t="s">
         <v>121</v>
       </c>
@@ -2817,7 +2820,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="43"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="31" t="s">
         <v>122</v>
       </c>
@@ -2826,7 +2829,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="31" t="s">
         <v>123</v>
       </c>
@@ -2835,7 +2838,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A58" s="43"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="31" t="s">
         <v>124</v>
       </c>
@@ -2844,10 +2847,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="19">
